--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp10-Eng.xlsx
@@ -546,10 +546,10 @@
         <v>0.229421</v>
       </c>
       <c r="I2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J2">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>17.82026985317689</v>
+        <v>20.41265825040323</v>
       </c>
       <c r="R2">
-        <v>160.382428678592</v>
+        <v>183.713924253629</v>
       </c>
       <c r="S2">
-        <v>0.1077690328582108</v>
+        <v>0.05388027975935713</v>
       </c>
       <c r="T2">
-        <v>0.1077690328582108</v>
+        <v>0.05388027975935712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.229421</v>
       </c>
       <c r="I3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J3">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
         <v>3.954201577513889</v>
@@ -638,10 +638,10 @@
         <v>35.587814197625</v>
       </c>
       <c r="S3">
-        <v>0.02391324504320642</v>
+        <v>0.0104373220091083</v>
       </c>
       <c r="T3">
-        <v>0.02391324504320642</v>
+        <v>0.0104373220091083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.229421</v>
       </c>
       <c r="I4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J4">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>0.670562583551889</v>
+        <v>0.5911329037738889</v>
       </c>
       <c r="R4">
-        <v>6.035063251967</v>
+        <v>5.320196133965</v>
       </c>
       <c r="S4">
-        <v>0.004055263006435736</v>
+        <v>0.001560326236768752</v>
       </c>
       <c r="T4">
-        <v>0.004055263006435736</v>
+        <v>0.001560326236768752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.229421</v>
       </c>
       <c r="I5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J5">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>0.3039739030722222</v>
+        <v>0.2792921546116667</v>
       </c>
       <c r="R5">
-        <v>2.73576512765</v>
+        <v>2.513629391505</v>
       </c>
       <c r="S5">
-        <v>0.001838298399414463</v>
+        <v>0.0007372062590022036</v>
       </c>
       <c r="T5">
-        <v>0.001838298399414463</v>
+        <v>0.0007372062590022036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.229421</v>
       </c>
       <c r="I6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="J6">
-        <v>0.1407029844210547</v>
+        <v>0.06842864744397358</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>0.5170926036893334</v>
+        <v>0.6870533140494445</v>
       </c>
       <c r="R6">
-        <v>4.653833433204</v>
+        <v>6.183479826445001</v>
       </c>
       <c r="S6">
-        <v>0.003127145113787316</v>
+        <v>0.001813513179737199</v>
       </c>
       <c r="T6">
-        <v>0.003127145113787316</v>
+        <v>0.001813513179737199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H7">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I7">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J7">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>73.62259145704533</v>
+        <v>165.9693494958217</v>
       </c>
       <c r="R7">
-        <v>662.603323113408</v>
+        <v>1493.724145462395</v>
       </c>
       <c r="S7">
-        <v>0.4452365504682006</v>
+        <v>0.4380847840891445</v>
       </c>
       <c r="T7">
-        <v>0.4452365504682005</v>
+        <v>0.4380847840891445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H8">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I8">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J8">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
-        <v>16.33637255095833</v>
+        <v>32.15045564104167</v>
       </c>
       <c r="R8">
-        <v>147.027352958625</v>
+        <v>289.354100769375</v>
       </c>
       <c r="S8">
-        <v>0.09879508473965896</v>
+        <v>0.0848628102758693</v>
       </c>
       <c r="T8">
-        <v>0.09879508473965896</v>
+        <v>0.0848628102758693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H9">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I9">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J9">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>2.770359570420334</v>
+        <v>4.806328617341666</v>
       </c>
       <c r="R9">
-        <v>24.933236133783</v>
+        <v>43.256957556075</v>
       </c>
       <c r="S9">
-        <v>0.01675389733340443</v>
+        <v>0.01268655592725938</v>
       </c>
       <c r="T9">
-        <v>0.01675389733340442</v>
+        <v>0.01268655592725938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H10">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I10">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J10">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>1.255836564983333</v>
+        <v>2.270842760975</v>
       </c>
       <c r="R10">
-        <v>11.30252908485</v>
+        <v>20.437584848775</v>
       </c>
       <c r="S10">
-        <v>0.007594738640397398</v>
+        <v>0.005994008313367371</v>
       </c>
       <c r="T10">
-        <v>0.007594738640397397</v>
+        <v>0.005994008313367371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.315943</v>
+        <v>0.621785</v>
       </c>
       <c r="H11">
-        <v>0.947829</v>
+        <v>1.865355</v>
       </c>
       <c r="I11">
-        <v>0.5812997459727918</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="J11">
-        <v>0.5812997459727917</v>
+        <v>0.5563733034589394</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>2.136314310644</v>
+        <v>5.586229397608333</v>
       </c>
       <c r="R11">
-        <v>19.226828795796</v>
+        <v>50.276064578475</v>
       </c>
       <c r="S11">
-        <v>0.01291947479113036</v>
+        <v>0.01474514485329888</v>
       </c>
       <c r="T11">
-        <v>0.01291947479113036</v>
+        <v>0.01474514485329888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H12">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J12">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>35.20882220950756</v>
+        <v>111.9237313393858</v>
       </c>
       <c r="R12">
-        <v>316.879399885568</v>
+        <v>1007.313582054472</v>
       </c>
       <c r="S12">
-        <v>0.2129272311170346</v>
+        <v>0.2954285464588185</v>
       </c>
       <c r="T12">
-        <v>0.2129272311170346</v>
+        <v>0.2954285464588185</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H13">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J13">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>7.812607860055556</v>
+        <v>21.68110540011111</v>
       </c>
       <c r="R13">
-        <v>70.31347074050001</v>
+        <v>195.129948601</v>
       </c>
       <c r="S13">
-        <v>0.04724716292826193</v>
+        <v>0.05722841239587301</v>
       </c>
       <c r="T13">
-        <v>0.04724716292826193</v>
+        <v>0.05722841239587302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H14">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J14">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>1.324879981007556</v>
+        <v>3.241214323791111</v>
       </c>
       <c r="R14">
-        <v>11.923919829068</v>
+        <v>29.17092891412</v>
       </c>
       <c r="S14">
-        <v>0.0080122823830827</v>
+        <v>0.008555354838336691</v>
       </c>
       <c r="T14">
-        <v>0.008012282383082698</v>
+        <v>0.008555354838336693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H15">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J15">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>0.6005836722888889</v>
+        <v>1.531374292093333</v>
       </c>
       <c r="R15">
-        <v>5.4052530506</v>
+        <v>13.78236862884</v>
       </c>
       <c r="S15">
-        <v>0.003632061806374245</v>
+        <v>0.00404214258927528</v>
       </c>
       <c r="T15">
-        <v>0.003632061806374245</v>
+        <v>0.004042142589275281</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510946666666667</v>
+        <v>0.4193093333333334</v>
       </c>
       <c r="H16">
-        <v>0.453284</v>
+        <v>1.257928</v>
       </c>
       <c r="I16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="J16">
-        <v>0.2779972696061536</v>
+        <v>0.375198049097087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>1.021658016357333</v>
+        <v>3.767151225195556</v>
       </c>
       <c r="R16">
-        <v>9.194922147215999</v>
+        <v>33.90436102676001</v>
       </c>
       <c r="S16">
-        <v>0.006178531371400045</v>
+        <v>0.009943592814783544</v>
       </c>
       <c r="T16">
-        <v>0.006178531371400045</v>
+        <v>0.009943592814783546</v>
       </c>
     </row>
   </sheetData>
